--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H2">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N2">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q2">
-        <v>2.157338432378761</v>
+        <v>2.586223523473333</v>
       </c>
       <c r="R2">
-        <v>2.157338432378761</v>
+        <v>23.27601171126</v>
       </c>
       <c r="S2">
-        <v>0.00155107085656588</v>
+        <v>0.001673776090589787</v>
       </c>
       <c r="T2">
-        <v>0.00155107085656588</v>
+        <v>0.001673776090589787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H3">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N3">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q3">
-        <v>2.761598220553413</v>
+        <v>3.100940921368888</v>
       </c>
       <c r="R3">
-        <v>2.761598220553413</v>
+        <v>27.90846829231999</v>
       </c>
       <c r="S3">
-        <v>0.001985518105623103</v>
+        <v>0.002006895662888448</v>
       </c>
       <c r="T3">
-        <v>0.001985518105623103</v>
+        <v>0.002006895662888448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H4">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N4">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q4">
-        <v>23.5591718206047</v>
+        <v>28.18407308930889</v>
       </c>
       <c r="R4">
-        <v>23.5591718206047</v>
+        <v>253.65665780378</v>
       </c>
       <c r="S4">
-        <v>0.01693843871101651</v>
+        <v>0.01824042943085027</v>
       </c>
       <c r="T4">
-        <v>0.01693843871101651</v>
+        <v>0.01824042943085027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H5">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N5">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q5">
-        <v>22.76901237316669</v>
+        <v>25.80641243633444</v>
       </c>
       <c r="R5">
-        <v>22.76901237316669</v>
+        <v>232.25771192701</v>
       </c>
       <c r="S5">
-        <v>0.01637033438738941</v>
+        <v>0.01670163299026265</v>
       </c>
       <c r="T5">
-        <v>0.01637033438738941</v>
+        <v>0.01670163299026265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H6">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N6">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q6">
-        <v>32.7599651627666</v>
+        <v>38.21462053015444</v>
       </c>
       <c r="R6">
-        <v>32.7599651627666</v>
+        <v>343.93158477139</v>
       </c>
       <c r="S6">
-        <v>0.02355357252410901</v>
+        <v>0.02473209201516787</v>
       </c>
       <c r="T6">
-        <v>0.02355357252410901</v>
+        <v>0.02473209201516787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H7">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I7">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J7">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N7">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q7">
-        <v>30.76944285794735</v>
+        <v>38.40918265637445</v>
       </c>
       <c r="R7">
-        <v>30.76944285794735</v>
+        <v>345.68264390737</v>
       </c>
       <c r="S7">
-        <v>0.02212243817355412</v>
+        <v>0.02485801053382862</v>
       </c>
       <c r="T7">
-        <v>0.02212243817355412</v>
+        <v>0.02485801053382862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H8">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N8">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O8">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P8">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q8">
-        <v>4.925878121286828</v>
+        <v>5.288275821004667</v>
       </c>
       <c r="R8">
-        <v>4.925878121286828</v>
+        <v>47.59448238904201</v>
       </c>
       <c r="S8">
-        <v>0.003541579699434974</v>
+        <v>0.003422515319849134</v>
       </c>
       <c r="T8">
-        <v>0.003541579699434974</v>
+        <v>0.003422515319849134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H9">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N9">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O9">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P9">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q9">
-        <v>6.305592136236687</v>
+        <v>6.340763181527111</v>
       </c>
       <c r="R9">
-        <v>6.305592136236687</v>
+        <v>57.066868633744</v>
       </c>
       <c r="S9">
-        <v>0.004533558596609927</v>
+        <v>0.004103673836775981</v>
       </c>
       <c r="T9">
-        <v>0.004533558596609927</v>
+        <v>0.004103673836775981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H10">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N10">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O10">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P10">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q10">
-        <v>53.79295491379779</v>
+        <v>57.63042169512512</v>
       </c>
       <c r="R10">
-        <v>53.79295491379779</v>
+        <v>518.6737952561261</v>
       </c>
       <c r="S10">
-        <v>0.03867575128829173</v>
+        <v>0.03729779002023759</v>
       </c>
       <c r="T10">
-        <v>0.03867575128829173</v>
+        <v>0.03729779002023759</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H11">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N11">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O11">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P11">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q11">
-        <v>51.98877385622897</v>
+        <v>52.76861248661856</v>
       </c>
       <c r="R11">
-        <v>51.98877385622897</v>
+        <v>474.9175123795671</v>
       </c>
       <c r="S11">
-        <v>0.03737859150271391</v>
+        <v>0.03415127931211494</v>
       </c>
       <c r="T11">
-        <v>0.03737859150271391</v>
+        <v>0.03415127931211494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H12">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J12">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N12">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O12">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P12">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q12">
-        <v>74.80124269211505</v>
+        <v>78.14075308041257</v>
       </c>
       <c r="R12">
-        <v>74.80124269211505</v>
+        <v>703.2667777237131</v>
       </c>
       <c r="S12">
-        <v>0.05378016996930845</v>
+        <v>0.05057185622958912</v>
       </c>
       <c r="T12">
-        <v>0.05378016996930845</v>
+        <v>0.05057185622958912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H13">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J13">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N13">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O13">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P13">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q13">
-        <v>70.25625794420455</v>
+        <v>78.53859115528657</v>
       </c>
       <c r="R13">
-        <v>70.25625794420455</v>
+        <v>706.8473203975791</v>
       </c>
       <c r="S13">
-        <v>0.05051244281059498</v>
+        <v>0.05082933275921101</v>
       </c>
       <c r="T13">
-        <v>0.05051244281059498</v>
+        <v>0.050829332759211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H14">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N14">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O14">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P14">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q14">
-        <v>6.801427374081769</v>
+        <v>7.972268801651333</v>
       </c>
       <c r="R14">
-        <v>6.801427374081769</v>
+        <v>71.75041921486201</v>
       </c>
       <c r="S14">
-        <v>0.004890051382135428</v>
+        <v>0.005159566753162156</v>
       </c>
       <c r="T14">
-        <v>0.004890051382135428</v>
+        <v>0.005159566753162156</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H15">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N15">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O15">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P15">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q15">
-        <v>8.706473426506786</v>
+        <v>9.558931909331555</v>
       </c>
       <c r="R15">
-        <v>8.706473426506786</v>
+        <v>86.03038718398399</v>
       </c>
       <c r="S15">
-        <v>0.006259730505254827</v>
+        <v>0.006186438077064344</v>
       </c>
       <c r="T15">
-        <v>0.006259730505254827</v>
+        <v>0.006186438077064344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H16">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N16">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O16">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P16">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q16">
-        <v>74.27485355400384</v>
+        <v>86.87996399150957</v>
       </c>
       <c r="R16">
-        <v>74.27485355400384</v>
+        <v>781.9196759235861</v>
       </c>
       <c r="S16">
-        <v>0.05340170971519019</v>
+        <v>0.05622777967969008</v>
       </c>
       <c r="T16">
-        <v>0.05340170971519019</v>
+        <v>0.05622777967969008</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H17">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I17">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J17">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N17">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O17">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P17">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q17">
-        <v>71.78372280927022</v>
+        <v>79.55060917257077</v>
       </c>
       <c r="R17">
-        <v>71.78372280927022</v>
+        <v>715.955482553137</v>
       </c>
       <c r="S17">
-        <v>0.05161065076956566</v>
+        <v>0.05148429995179978</v>
       </c>
       <c r="T17">
-        <v>0.05161065076956566</v>
+        <v>0.05148429995179978</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H18">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I18">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J18">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N18">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O18">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P18">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q18">
-        <v>103.2821371407742</v>
+        <v>117.8000371021048</v>
       </c>
       <c r="R18">
-        <v>103.2821371407742</v>
+        <v>1060.200333918943</v>
       </c>
       <c r="S18">
-        <v>0.07425720068698503</v>
+        <v>0.07623891894204475</v>
       </c>
       <c r="T18">
-        <v>0.07425720068698503</v>
+        <v>0.07623891894204475</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H19">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I19">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J19">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N19">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O19">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P19">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q19">
-        <v>97.00662992803235</v>
+        <v>118.3997925195188</v>
       </c>
       <c r="R19">
-        <v>97.00662992803235</v>
+        <v>1065.598132675669</v>
       </c>
       <c r="S19">
-        <v>0.06974527237672913</v>
+        <v>0.07662707420734104</v>
       </c>
       <c r="T19">
-        <v>0.06974527237672913</v>
+        <v>0.07662707420734102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H20">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N20">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O20">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P20">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q20">
-        <v>7.07910625146686</v>
+        <v>7.596213247373333</v>
       </c>
       <c r="R20">
-        <v>7.07910625146686</v>
+        <v>68.36591922635999</v>
       </c>
       <c r="S20">
-        <v>0.005089695354417069</v>
+        <v>0.004916187636944594</v>
       </c>
       <c r="T20">
-        <v>0.005089695354417069</v>
+        <v>0.004916187636944594</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H21">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N21">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O21">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P21">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q21">
-        <v>9.061928779344678</v>
+        <v>9.108032732835554</v>
       </c>
       <c r="R21">
-        <v>9.061928779344678</v>
+        <v>81.97229459551998</v>
       </c>
       <c r="S21">
-        <v>0.006515293763352106</v>
+        <v>0.005894620972303016</v>
       </c>
       <c r="T21">
-        <v>0.006515293763352106</v>
+        <v>0.005894620972303016</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H22">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I22">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J22">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N22">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O22">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P22">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q22">
-        <v>77.30724026027256</v>
+        <v>82.78179647767556</v>
       </c>
       <c r="R22">
-        <v>77.30724026027256</v>
+        <v>745.03616829908</v>
       </c>
       <c r="S22">
-        <v>0.05558191777867192</v>
+        <v>0.05357548967550867</v>
       </c>
       <c r="T22">
-        <v>0.05558191777867192</v>
+        <v>0.05357548967550867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H23">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I23">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J23">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N23">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O23">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P23">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q23">
-        <v>74.71440521869485</v>
+        <v>75.79817066731778</v>
       </c>
       <c r="R23">
-        <v>74.71440521869485</v>
+        <v>682.18353600586</v>
       </c>
       <c r="S23">
-        <v>0.0537177360589593</v>
+        <v>0.04905576204914169</v>
       </c>
       <c r="T23">
-        <v>0.0537177360589593</v>
+        <v>0.04905576204914169</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H24">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I24">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J24">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N24">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O24">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P24">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q24">
-        <v>107.4987914278539</v>
+        <v>112.2433556418378</v>
       </c>
       <c r="R24">
-        <v>107.4987914278539</v>
+        <v>1010.19020077654</v>
       </c>
       <c r="S24">
-        <v>0.07728886668743323</v>
+        <v>0.07264269437490928</v>
       </c>
       <c r="T24">
-        <v>0.07728886668743323</v>
+        <v>0.07264269437490928</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H25">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I25">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J25">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N25">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O25">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P25">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q25">
-        <v>100.9670768483325</v>
+        <v>112.8148203227578</v>
       </c>
       <c r="R25">
-        <v>100.9670768483325</v>
+        <v>1015.33338290482</v>
       </c>
       <c r="S25">
-        <v>0.07259273186887759</v>
+        <v>0.07301254017936466</v>
       </c>
       <c r="T25">
-        <v>0.07259273186887759</v>
+        <v>0.07301254017936465</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H26">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N26">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O26">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P26">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q26">
-        <v>2.672836930952381</v>
+        <v>2.935784164409333</v>
       </c>
       <c r="R26">
-        <v>2.672836930952381</v>
+        <v>26.422057479684</v>
       </c>
       <c r="S26">
-        <v>0.001921701020911198</v>
+        <v>0.001900007983424842</v>
       </c>
       <c r="T26">
-        <v>0.001921701020911198</v>
+        <v>0.001900007983424843</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H27">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I27">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J27">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N27">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O27">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P27">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q27">
-        <v>3.421485290190954</v>
+        <v>3.520072093187555</v>
       </c>
       <c r="R27">
-        <v>3.421485290190954</v>
+        <v>31.680648838688</v>
       </c>
       <c r="S27">
-        <v>0.002459959939587404</v>
+        <v>0.002278152856183479</v>
       </c>
       <c r="T27">
-        <v>0.002459959939587404</v>
+        <v>0.002278152856183479</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H28">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I28">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J28">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N28">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O28">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P28">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q28">
-        <v>29.18866301164071</v>
+        <v>31.99350509078356</v>
       </c>
       <c r="R28">
-        <v>29.18866301164071</v>
+        <v>287.941545817052</v>
       </c>
       <c r="S28">
-        <v>0.02098589811407474</v>
+        <v>0.0207058529122022</v>
       </c>
       <c r="T28">
-        <v>0.02098589811407474</v>
+        <v>0.02070585291220221</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H29">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I29">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J29">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N29">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O29">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P29">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q29">
-        <v>28.20969405584063</v>
+        <v>29.29447369230378</v>
       </c>
       <c r="R29">
-        <v>28.20969405584063</v>
+        <v>263.650263230734</v>
       </c>
       <c r="S29">
-        <v>0.02028204460920302</v>
+        <v>0.01895906877636718</v>
       </c>
       <c r="T29">
-        <v>0.02028204460920302</v>
+        <v>0.01895906877636718</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H30">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I30">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J30">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N30">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O30">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P30">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q30">
-        <v>40.58799650048736</v>
+        <v>43.37980719109177</v>
       </c>
       <c r="R30">
-        <v>40.58799650048736</v>
+        <v>390.418264719826</v>
       </c>
       <c r="S30">
-        <v>0.02918172575681022</v>
+        <v>0.02807494535249246</v>
       </c>
       <c r="T30">
-        <v>0.02918172575681022</v>
+        <v>0.02807494535249246</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H31">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I31">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J31">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N31">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O31">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P31">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q31">
-        <v>38.12183660255286</v>
+        <v>43.60066683603978</v>
       </c>
       <c r="R31">
-        <v>38.12183660255286</v>
+        <v>392.406001524358</v>
       </c>
       <c r="S31">
-        <v>0.02740862020790481</v>
+        <v>0.02821788334286139</v>
       </c>
       <c r="T31">
-        <v>0.02740862020790481</v>
+        <v>0.02821788334286138</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H32">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I32">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J32">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N32">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O32">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P32">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q32">
-        <v>2.506196998606872</v>
+        <v>2.939229640192667</v>
       </c>
       <c r="R32">
-        <v>2.506196998606872</v>
+        <v>26.453066761734</v>
       </c>
       <c r="S32">
-        <v>0.001801891194728187</v>
+        <v>0.001902237858350388</v>
       </c>
       <c r="T32">
-        <v>0.001801891194728187</v>
+        <v>0.001902237858350388</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H33">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I33">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J33">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N33">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O33">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P33">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q33">
-        <v>3.208170339818948</v>
+        <v>3.524203297143111</v>
       </c>
       <c r="R33">
-        <v>3.208170339818948</v>
+        <v>31.717829674288</v>
       </c>
       <c r="S33">
-        <v>0.002306591975699147</v>
+        <v>0.00228082652701796</v>
       </c>
       <c r="T33">
-        <v>0.002306591975699147</v>
+        <v>0.00228082652701796</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H34">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I34">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J34">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N34">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O34">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P34">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q34">
-        <v>27.36887491563348</v>
+        <v>32.03105309868911</v>
       </c>
       <c r="R34">
-        <v>27.36887491563348</v>
+        <v>288.2794778882021</v>
       </c>
       <c r="S34">
-        <v>0.01967751726919728</v>
+        <v>0.02073015357968558</v>
       </c>
       <c r="T34">
-        <v>0.01967751726919728</v>
+        <v>0.02073015357968558</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H35">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I35">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J35">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N35">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O35">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P35">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q35">
-        <v>26.45094048037362</v>
+        <v>29.32885408065655</v>
       </c>
       <c r="R35">
-        <v>26.45094048037362</v>
+        <v>263.959686725909</v>
       </c>
       <c r="S35">
-        <v>0.0190175460150812</v>
+        <v>0.01898131939449349</v>
       </c>
       <c r="T35">
-        <v>0.0190175460150812</v>
+        <v>0.01898131939449349</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H36">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I36">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J36">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N36">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O36">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P36">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q36">
-        <v>38.05750879562354</v>
+        <v>43.43071831629455</v>
       </c>
       <c r="R36">
-        <v>38.05750879562354</v>
+        <v>390.876464846651</v>
       </c>
       <c r="S36">
-        <v>0.02736237016892282</v>
+        <v>0.02810789448598228</v>
       </c>
       <c r="T36">
-        <v>0.02736237016892282</v>
+        <v>0.02810789448598228</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H37">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I37">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J37">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N37">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O37">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P37">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q37">
-        <v>35.74510340241993</v>
+        <v>43.65183716509256</v>
       </c>
       <c r="R37">
-        <v>35.74510340241993</v>
+        <v>392.866534485833</v>
       </c>
       <c r="S37">
-        <v>0.02569981015509641</v>
+        <v>0.02825100023029931</v>
       </c>
       <c r="T37">
-        <v>0.02569981015509641</v>
+        <v>0.0282510002302993</v>
       </c>
     </row>
   </sheetData>
